--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,14 +115,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -647,244 +650,291 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C1" sqref="C1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>499</v>
-      </c>
-      <c r="C1">
+        <v>699</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D1">
         <v>0</v>
       </c>
-      <c r="D1">
-        <f>C1*B1</f>
+      <c r="E1">
+        <f>D1*B1</f>
         <v>0</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>210</v>
-      </c>
-      <c r="C2">
+        <v>312</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <f>C2*B2</f>
-        <v>1050</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>D2*B2</f>
+        <v>1560</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>286</v>
-      </c>
-      <c r="C3">
+        <v>428</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
         <v>15</v>
       </c>
-      <c r="D3">
-        <f>C3*B3</f>
-        <v>4290</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>D3*B3</f>
+        <v>6420</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>342</v>
-      </c>
-      <c r="C4">
+        <v>495</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
         <v>25</v>
       </c>
-      <c r="D4">
-        <f>C4*B4</f>
-        <v>8550</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>D4*B4</f>
+        <v>12375</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>320</v>
-      </c>
-      <c r="C5">
+        <v>464</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
         <v>35</v>
       </c>
-      <c r="D5">
-        <f>C5*B5</f>
-        <v>11200</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>D5*B5</f>
+        <v>16240</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>411</v>
-      </c>
-      <c r="C6">
+        <v>584</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
         <v>45</v>
       </c>
-      <c r="D6">
-        <f>C6*B6</f>
-        <v>18495</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>D6*B6</f>
+        <v>26280</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>565</v>
-      </c>
-      <c r="C7">
+        <v>848</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
         <v>55</v>
       </c>
-      <c r="D7">
-        <f>C7*B7</f>
-        <v>31075</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>D7*B7</f>
+        <v>46640</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>528</v>
-      </c>
-      <c r="C8">
+        <v>760</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
         <v>65</v>
       </c>
-      <c r="D8">
-        <f>C8*B8</f>
-        <v>34320</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>D8*B8</f>
+        <v>49400</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>627</v>
-      </c>
-      <c r="C9">
+        <v>897</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
         <v>75</v>
       </c>
-      <c r="D9">
-        <f>C9*B9</f>
-        <v>47025</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>D9*B9</f>
+        <v>67275</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>816</v>
-      </c>
-      <c r="C10">
+        <v>1163</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D10">
         <v>85</v>
       </c>
-      <c r="D10">
-        <f>C10*B10</f>
-        <v>69360</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>D10*B10</f>
+        <v>98855</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1207</v>
-      </c>
-      <c r="C11">
+        <v>1670</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
         <v>95</v>
       </c>
-      <c r="D11">
-        <f>C11*B11</f>
-        <v>114665</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>D11*B11</f>
+        <v>158650</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1278</v>
-      </c>
-      <c r="C12">
+        <v>1770</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D12">
         <v>100</v>
       </c>
-      <c r="D12">
-        <f>C12*B12</f>
-        <v>127800</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>D12*B12</f>
+        <v>177000</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>572</v>
-      </c>
-      <c r="C13">
+        <v>786</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
         <v>100</v>
       </c>
-      <c r="D13">
-        <f>C13*B13</f>
-        <v>57200</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>D13*B13</f>
+        <v>78600</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1480</v>
-      </c>
-      <c r="E14" s="2">
-        <f>SUM(D1:D13)/SUM(B1:B13)</f>
-        <v>68.532828612452676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2224</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>67.974898859874955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
-        <v>9141</v>
+        <v>13100</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.92</v>
       </c>
       <c r="E15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
     <sheet name="20191014" sheetId="2" r:id="rId2"/>
+    <sheet name="20191015" sheetId="3" r:id="rId3"/>
+    <sheet name="20191017" sheetId="4" r:id="rId4"/>
+    <sheet name="20191021" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
   <si>
     <t>空仓</t>
   </si>
@@ -67,6 +70,15 @@
   </si>
   <si>
     <t>10-19</t>
+  </si>
+  <si>
+    <t>60-69 (已选)</t>
+  </si>
+  <si>
+    <t>90-99</t>
+  </si>
+  <si>
+    <t>空仓 (已选)</t>
   </si>
 </sst>
 </file>
@@ -652,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -672,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="E1">
-        <f>D1*B1</f>
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
         <v>0</v>
       </c>
       <c r="F1" s="1"/>
@@ -691,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <f>D2*B2</f>
+        <f t="shared" si="0"/>
         <v>1560</v>
       </c>
       <c r="F2" s="1"/>
@@ -710,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <f>D3*B3</f>
+        <f t="shared" si="0"/>
         <v>6420</v>
       </c>
       <c r="F3" s="1"/>
@@ -729,7 +741,7 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <f>D4*B4</f>
+        <f t="shared" si="0"/>
         <v>12375</v>
       </c>
       <c r="F4" s="1"/>
@@ -748,7 +760,7 @@
         <v>35</v>
       </c>
       <c r="E5">
-        <f>D5*B5</f>
+        <f t="shared" si="0"/>
         <v>16240</v>
       </c>
       <c r="F5" s="1"/>
@@ -767,7 +779,7 @@
         <v>45</v>
       </c>
       <c r="E6">
-        <f>D6*B6</f>
+        <f t="shared" si="0"/>
         <v>26280</v>
       </c>
       <c r="F6" s="1"/>
@@ -786,7 +798,7 @@
         <v>55</v>
       </c>
       <c r="E7">
-        <f>D7*B7</f>
+        <f t="shared" si="0"/>
         <v>46640</v>
       </c>
       <c r="F7" s="1"/>
@@ -805,7 +817,7 @@
         <v>65</v>
       </c>
       <c r="E8">
-        <f>D8*B8</f>
+        <f t="shared" si="0"/>
         <v>49400</v>
       </c>
       <c r="F8" s="1"/>
@@ -824,7 +836,7 @@
         <v>75</v>
       </c>
       <c r="E9">
-        <f>D9*B9</f>
+        <f t="shared" si="0"/>
         <v>67275</v>
       </c>
       <c r="F9" s="1"/>
@@ -843,7 +855,7 @@
         <v>85</v>
       </c>
       <c r="E10">
-        <f>D10*B10</f>
+        <f t="shared" si="0"/>
         <v>98855</v>
       </c>
       <c r="F10" s="1"/>
@@ -862,7 +874,7 @@
         <v>95</v>
       </c>
       <c r="E11">
-        <f>D11*B11</f>
+        <f t="shared" si="0"/>
         <v>158650</v>
       </c>
       <c r="F11" s="1"/>
@@ -881,7 +893,7 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <f>D12*B12</f>
+        <f t="shared" si="0"/>
         <v>177000</v>
       </c>
       <c r="F12" s="1"/>
@@ -900,7 +912,7 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <f>D13*B13</f>
+        <f t="shared" si="0"/>
         <v>78600</v>
       </c>
       <c r="F13" s="1"/>
@@ -929,6 +941,843 @@
       <c r="C15">
         <f>SUM(C1:C14)</f>
         <v>0.92</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>676</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>302</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>372</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>457</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>11425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>418</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>14630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>525</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>666</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>36630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>690</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>732</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>54900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>972</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>82620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1493</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>141835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1443</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>144300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>727</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>72700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2224</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>66.990921566557589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>11697</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>762</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>356</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>398</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>477</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>11925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>502</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>17570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>560</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>722</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>39710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>684</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>813</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>60975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1013</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>86105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1531</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>145445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1498</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>149800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>861</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>86100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2206</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>66.329959713078509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>12383</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.93</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>444</v>
+      </c>
+      <c r="C1" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>173</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>206</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>221</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>235</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>369</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>20295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>294</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>19110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>347</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>26025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>432</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>36720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>702</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>66690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>741</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>473</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>47300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>973</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>65.356776706992008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>5850</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94000000000000006</v>
       </c>
       <c r="E15" s="1"/>
     </row>

--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="20191015" sheetId="3" r:id="rId3"/>
     <sheet name="20191017" sheetId="4" r:id="rId4"/>
     <sheet name="20191021" sheetId="5" r:id="rId5"/>
+    <sheet name="20191023" sheetId="6" r:id="rId6"/>
+    <sheet name="20191027" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
   <si>
     <t>空仓</t>
   </si>
@@ -79,6 +81,21 @@
   </si>
   <si>
     <t>空仓 (已选)</t>
+  </si>
+  <si>
+    <t>看多</t>
+  </si>
+  <si>
+    <t>看空 (已选)</t>
+  </si>
+  <si>
+    <t>看平</t>
+  </si>
+  <si>
+    <t>看空</t>
+  </si>
+  <si>
+    <t>看平 (已选)</t>
   </si>
 </sst>
 </file>
@@ -423,10 +440,13 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -956,7 +976,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1234,13 +1254,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1502,6 +1525,60 @@
         <v>0.93</v>
       </c>
       <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>4544</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>3367</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1541</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2063</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>11515</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1515,17 +1592,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1">
-        <v>444</v>
+        <v>837</v>
       </c>
       <c r="C1" s="3">
         <v>7.0000000000000007E-2</v>
@@ -1543,17 +1623,17 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>173</v>
+        <v>349</v>
       </c>
       <c r="C2" s="3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>865</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>206</v>
+        <v>401</v>
       </c>
       <c r="C3" s="3">
         <v>0.03</v>
@@ -1571,7 +1651,7 @@
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>3090</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>221</v>
+        <v>460</v>
       </c>
       <c r="C4" s="3">
         <v>0.03</v>
@@ -1589,7 +1669,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>5525</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>235</v>
+        <v>475</v>
       </c>
       <c r="C5" s="3">
         <v>0.04</v>
@@ -1607,7 +1687,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>8225</v>
+        <v>16625</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1615,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>240</v>
+        <v>487</v>
       </c>
       <c r="C6" s="3">
         <v>0.04</v>
@@ -1625,7 +1705,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>21915</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,17 +1713,17 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>369</v>
+        <v>671</v>
       </c>
       <c r="C7" s="3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D7">
         <v>55</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>20295</v>
+        <v>36905</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1651,7 +1731,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>294</v>
+        <v>584</v>
       </c>
       <c r="C8" s="3">
         <v>0.05</v>
@@ -1661,7 +1741,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>19110</v>
+        <v>37960</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1669,17 +1749,17 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>347</v>
+        <v>703</v>
       </c>
       <c r="C9" s="3">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="D9">
         <v>75</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>26025</v>
+        <v>52725</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1687,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>432</v>
+        <v>850</v>
       </c>
       <c r="C10" s="3">
         <v>7.0000000000000007E-2</v>
@@ -1697,7 +1777,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>36720</v>
+        <v>72250</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>702</v>
+        <v>1397</v>
       </c>
       <c r="C11" s="3">
         <v>0.12</v>
@@ -1715,7 +1795,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>66690</v>
+        <v>132715</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,17 +1803,17 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>741</v>
+        <v>1363</v>
       </c>
       <c r="C12" s="3">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>74100</v>
+        <v>136300</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1741,17 +1821,17 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>473</v>
+        <v>880</v>
       </c>
       <c r="C13" s="3">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D13">
         <v>100</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>47300</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,27 +1839,697 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>973</v>
+        <v>2056</v>
       </c>
       <c r="C14" s="3">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F14" s="2">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>65.356776706992008</v>
+        <v>64.994712911071161</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
-        <v>5850</v>
+        <v>11513</v>
       </c>
       <c r="C15">
         <f>SUM(C1:C14)</f>
         <v>0.94000000000000006</v>
       </c>
       <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>986</v>
+      </c>
+      <c r="C1" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>422</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>455</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>533</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>13325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>528</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>18480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>600</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>800</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>672</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>775</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>58125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>973</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>82705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1617</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>153615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1537</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>153700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1034</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>103400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2379</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>64.66931942919868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>13311</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3391</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>5632</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1836</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2439</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>13298</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>888</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>377</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>436</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>504</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>530</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>564</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>25380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>821</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>724</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>47060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>838</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>62850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1017</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>86445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1641</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>155895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1680</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>871</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>87100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2298</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>65.876411716095859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>13189</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.93</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>8214</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1589</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1115</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2270</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>13188</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="20191021" sheetId="5" r:id="rId5"/>
     <sheet name="20191023" sheetId="6" r:id="rId6"/>
     <sheet name="20191027" sheetId="7" r:id="rId7"/>
+    <sheet name="20191029" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="22">
   <si>
     <t>空仓</t>
   </si>
@@ -2207,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2536,4 +2537,339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>877</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>382</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>453</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>512</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>567</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>19845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>599</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>26955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>892</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>49060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>774</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>50310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>872</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>65400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1125</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>95625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1802</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>171190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1759</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>175900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1149</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>114900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2344</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>67.218396667516785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>14107</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3755</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>6288</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1761</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2325</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>14129</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="20191023" sheetId="6" r:id="rId6"/>
     <sheet name="20191027" sheetId="7" r:id="rId7"/>
     <sheet name="20191029" sheetId="8" r:id="rId8"/>
+    <sheet name="20191103" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="24">
   <si>
     <t>空仓</t>
   </si>
@@ -97,6 +98,12 @@
   </si>
   <si>
     <t>看平 (已选)</t>
+  </si>
+  <si>
+    <t>看多 (已选)</t>
+  </si>
+  <si>
+    <t>我是来给卫斯理打Call的~</t>
   </si>
 </sst>
 </file>
@@ -2543,7 +2550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -2872,4 +2879,339 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>812</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>336</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>388</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>449</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>11225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>487</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>17045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>558</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>25110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>779</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>42845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>650</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>42250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>753</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>56475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>84915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1463</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>138985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1535</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>153500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>832</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>83200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2177</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>66.034259535902805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>12218</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.92</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>5942</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2322</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1728</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2225</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>12217</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="20191027" sheetId="7" r:id="rId7"/>
     <sheet name="20191029" sheetId="8" r:id="rId8"/>
     <sheet name="20191103" sheetId="9" r:id="rId9"/>
+    <sheet name="20191110" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="24">
   <si>
     <t>空仓</t>
   </si>
@@ -688,6 +689,341 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>284</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>133</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>167</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>184</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>227</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>210</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>297</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>16335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>281</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>18265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>280</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>388</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>32980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>528</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>50160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>545</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>324</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1349</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>65.178014553014549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>5197</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1255</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1960</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>620</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>1360</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>5195</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
@@ -2885,7 +3221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="20191029" sheetId="8" r:id="rId8"/>
     <sheet name="20191103" sheetId="9" r:id="rId9"/>
     <sheet name="20191110" sheetId="10" r:id="rId10"/>
+    <sheet name="20191111" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="24">
   <si>
     <t>空仓</t>
   </si>
@@ -693,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1011,6 +1012,341 @@
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>5195</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>979</v>
+      </c>
+      <c r="C1" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>392</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>454</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>497</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>17395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>578</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>26010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>773</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>42515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>655</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>42575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>810</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>60750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>85340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1563</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>148485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1619</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>161900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1113</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>111300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2171</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>65.606656304288194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>13108</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.91</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3809</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5541</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1531</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2173</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>13054</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C20:C23)</f>
@@ -3222,7 +3558,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="20191103" sheetId="9" r:id="rId9"/>
     <sheet name="20191110" sheetId="10" r:id="rId10"/>
     <sheet name="20191111" sheetId="11" r:id="rId11"/>
+    <sheet name="20191117" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="24">
   <si>
     <t>空仓</t>
   </si>
@@ -694,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1351,6 +1352,341 @@
       <c r="C24" s="3">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>922</v>
+      </c>
+      <c r="C1" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>381</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>441</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>480</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>491</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>17185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>560</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>806</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>646</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>41990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>754</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>56550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>962</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>81770</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1396</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>132620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1323</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>132300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>879</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>87900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2242</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>63.775022408126681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>12283</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3438</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4960</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1544</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2335</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>12277</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Projects\Quant\DM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell-pc\Quant\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503E5FDA-B490-4998-8A6C-406D7444F642}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -24,18 +25,25 @@
     <sheet name="20191110" sheetId="10" r:id="rId10"/>
     <sheet name="20191111" sheetId="11" r:id="rId11"/>
     <sheet name="20191117" sheetId="12" r:id="rId12"/>
+    <sheet name="20191119" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="25">
   <si>
     <t>空仓</t>
   </si>
@@ -108,26 +116,29 @@
   <si>
     <t>我是来给卫斯理打Call的~</t>
   </si>
+  <si>
+    <t>我是来给卫斯理打call的</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -162,7 +173,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -447,19 +458,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +486,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,7 +502,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -507,7 +518,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -523,7 +534,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -539,7 +550,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -555,7 +566,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -571,7 +582,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -587,7 +598,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -603,7 +614,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -619,7 +630,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -635,7 +646,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -651,7 +662,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -667,7 +678,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -679,7 +690,7 @@
         <v>67.477805397727266</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="B15">
         <f>SUM(B1:B14)</f>
         <v>13498</v>
@@ -692,19 +703,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -722,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -740,7 +751,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -758,7 +769,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -776,7 +787,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,7 +805,7 @@
         <v>7945</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,7 +823,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,7 +841,7 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,7 +859,7 @@
         <v>18265</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,7 +877,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -884,7 +895,7 @@
         <v>32980</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -902,7 +913,7 @@
         <v>50160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,7 +931,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -938,7 +949,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -953,7 +964,7 @@
         <v>65.178014553014549</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -965,7 +976,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -976,7 +987,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -987,7 +998,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +1020,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>5195</v>
@@ -1027,19 +1038,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1075,7 +1086,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,7 +1104,7 @@
         <v>6810</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1111,7 +1122,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1129,7 +1140,7 @@
         <v>17395</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1158,7 @@
         <v>26010</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1165,7 +1176,7 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>42575</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1212,7 @@
         <v>60750</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1230,7 @@
         <v>85340</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1237,7 +1248,7 @@
         <v>148485</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +1266,7 @@
         <v>161900</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1284,7 @@
         <v>111300</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1288,7 +1299,7 @@
         <v>65.606656304288194</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -1300,7 +1311,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1311,7 +1322,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1322,7 +1333,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1333,7 +1344,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1355,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>13054</v>
@@ -1362,19 +1373,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1410,7 +1421,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +1439,7 @@
         <v>6615</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1446,7 +1457,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1475,7 @@
         <v>17185</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1493,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1500,7 +1511,7 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +1529,7 @@
         <v>41990</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1536,7 +1547,7 @@
         <v>56550</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1554,7 +1565,7 @@
         <v>81770</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1572,7 +1583,7 @@
         <v>132620</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1590,7 +1601,7 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1608,7 +1619,7 @@
         <v>87900</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1623,7 +1634,7 @@
         <v>63.775022408126681</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -1635,7 +1646,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1646,7 +1657,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1657,7 +1668,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1668,7 +1679,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1679,7 +1690,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>12277</v>
@@ -1696,17 +1707,351 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5722D589-19A5-44EA-8950-004F57B18929}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>738</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>332</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>389</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>495</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>469</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>16415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>550</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>24750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>778</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>686</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>787</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>59025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1013</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>86105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1446</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>137370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1484</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>148400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>851</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>85100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>2239</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>66.322120183669398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>12257</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>4993</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>3023</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1960</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2246</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>12222</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +2070,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1744,7 +2089,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +2108,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1782,7 +2127,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1801,7 +2146,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1820,7 +2165,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1839,7 +2184,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +2203,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1877,7 +2222,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1896,7 +2241,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +2260,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1934,7 +2279,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1953,7 +2298,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1968,7 +2313,7 @@
         <v>67.974898859874955</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -1988,19 +2333,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2036,7 +2381,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2054,7 +2399,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2072,7 +2417,7 @@
         <v>11425</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2090,7 +2435,7 @@
         <v>14630</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2453,7 @@
         <v>23625</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2471,7 @@
         <v>36630</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2144,7 +2489,7 @@
         <v>44850</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2162,7 +2507,7 @@
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2525,7 @@
         <v>82620</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -2198,7 +2543,7 @@
         <v>141835</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2216,7 +2561,7 @@
         <v>144300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2234,7 +2579,7 @@
         <v>72700</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2249,7 +2594,7 @@
         <v>66.990921566557589</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -2269,19 +2614,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2662,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2335,7 +2680,7 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2353,7 +2698,7 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2371,7 +2716,7 @@
         <v>17570</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2734,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2407,7 +2752,7 @@
         <v>39710</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2425,7 +2770,7 @@
         <v>44460</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2443,7 +2788,7 @@
         <v>60975</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2461,7 +2806,7 @@
         <v>86105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -2479,7 +2824,7 @@
         <v>145445</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2497,7 +2842,7 @@
         <v>149800</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2515,7 +2860,7 @@
         <v>86100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2530,7 +2875,7 @@
         <v>66.329959713078509</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -2542,7 +2887,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2553,7 +2898,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2564,7 +2909,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2575,7 +2920,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2586,7 +2931,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>11515</v>
@@ -2604,19 +2949,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2634,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2997,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +3015,7 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2688,7 +3033,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2706,7 +3051,7 @@
         <v>16625</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2724,7 +3069,7 @@
         <v>21915</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2742,7 +3087,7 @@
         <v>36905</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2760,7 +3105,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +3123,7 @@
         <v>52725</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2796,7 +3141,7 @@
         <v>72250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -2814,7 +3159,7 @@
         <v>132715</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2832,7 +3177,7 @@
         <v>136300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2850,7 +3195,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2865,7 +3210,7 @@
         <v>64.994712911071161</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -2885,19 +3230,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2915,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2933,7 +3278,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2951,7 +3296,7 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2969,7 +3314,7 @@
         <v>13325</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2987,7 +3332,7 @@
         <v>18480</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3005,7 +3350,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3023,7 +3368,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3041,7 +3386,7 @@
         <v>43680</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3059,7 +3404,7 @@
         <v>58125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3077,7 +3422,7 @@
         <v>82705</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -3095,7 +3440,7 @@
         <v>153615</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3113,7 +3458,7 @@
         <v>153700</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3131,7 +3476,7 @@
         <v>103400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3146,7 +3491,7 @@
         <v>64.66931942919868</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -3158,7 +3503,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3169,7 +3514,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3180,7 +3525,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3191,7 +3536,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3202,7 +3547,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>13298</v>
@@ -3220,19 +3565,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3250,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3268,7 +3613,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3286,7 +3631,7 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3304,7 +3649,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3322,7 +3667,7 @@
         <v>18550</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3340,7 +3685,7 @@
         <v>25380</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3358,7 +3703,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3376,7 +3721,7 @@
         <v>47060</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3394,7 +3739,7 @@
         <v>62850</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3412,7 +3757,7 @@
         <v>86445</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -3430,7 +3775,7 @@
         <v>155895</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +3793,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3466,7 +3811,7 @@
         <v>87100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3481,7 +3826,7 @@
         <v>65.876411716095859</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -3493,7 +3838,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3504,7 +3849,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3515,7 +3860,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3526,7 +3871,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3537,7 +3882,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>13188</v>
@@ -3555,19 +3900,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3585,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3603,7 +3948,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3621,7 +3966,7 @@
         <v>6795</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3639,7 +3984,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3657,7 +4002,7 @@
         <v>19845</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3675,7 +4020,7 @@
         <v>26955</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3693,7 +4038,7 @@
         <v>49060</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3711,7 +4056,7 @@
         <v>50310</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3729,7 +4074,7 @@
         <v>65400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3747,7 +4092,7 @@
         <v>95625</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -3765,7 +4110,7 @@
         <v>171190</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3783,7 +4128,7 @@
         <v>175900</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3801,7 +4146,7 @@
         <v>114900</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3816,7 +4161,7 @@
         <v>67.218396667516785</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -3828,7 +4173,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3839,7 +4184,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3850,7 +4195,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3861,7 +4206,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3872,7 +4217,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>14129</v>
@@ -3890,19 +4235,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3920,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3938,7 +4283,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3956,7 +4301,7 @@
         <v>5820</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3974,7 +4319,7 @@
         <v>11225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3992,7 +4337,7 @@
         <v>17045</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4010,7 +4355,7 @@
         <v>25110</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4028,7 +4373,7 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4046,7 +4391,7 @@
         <v>42250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4064,7 +4409,7 @@
         <v>56475</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4082,7 +4427,7 @@
         <v>84915</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -4100,7 +4445,7 @@
         <v>138985</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4118,7 +4463,7 @@
         <v>153500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4136,7 +4481,7 @@
         <v>83200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4151,7 +4496,7 @@
         <v>66.034259535902805</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -4163,7 +4508,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -4174,7 +4519,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4185,7 +4530,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4196,7 +4541,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -4207,7 +4552,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>12217</v>

--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="20191110" sheetId="10" r:id="rId10"/>
     <sheet name="20191111" sheetId="11" r:id="rId11"/>
     <sheet name="20191117" sheetId="12" r:id="rId12"/>
+    <sheet name="20191119" sheetId="14" r:id="rId13"/>
+    <sheet name="20191121" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="25">
   <si>
     <t>空仓</t>
   </si>
@@ -107,6 +109,9 @@
   </si>
   <si>
     <t>我是来给卫斯理打Call的~</t>
+  </si>
+  <si>
+    <t>我是来给卫斯理打call的</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1036,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1365,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1632,6 +1637,677 @@
       <c r="C15">
         <f>SUM(C1:C14)</f>
         <v>0.92999999999999994</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3438</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4960</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1544</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2335</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>12277</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>738</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>332</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>389</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>495</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>469</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>16415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>550</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>24750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>778</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>686</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>787</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>59025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1013</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>86105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1446</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>137370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1484</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>148400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>851</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>85100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>2239</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>66.322120183669398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>12257</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>4993</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>3023</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1960</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2246</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>12222</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>808</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>324</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>382</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>442</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>505</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>17675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>558</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>25110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>735</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>40425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>635</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>41275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>739</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>55425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>972</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>82620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1484</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>140980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1394</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>139400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>867</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>86700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>2307</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>65.821229050279328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>12152</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94</v>
       </c>
       <c r="E15" s="1"/>
     </row>

--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="20191117" sheetId="12" r:id="rId12"/>
     <sheet name="20191119" sheetId="14" r:id="rId13"/>
     <sheet name="20191121" sheetId="13" r:id="rId14"/>
+    <sheet name="20191125" sheetId="15" r:id="rId15"/>
+    <sheet name="20191126" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="26">
   <si>
     <t>空仓</t>
   </si>
@@ -112,6 +114,9 @@
   </si>
   <si>
     <t>我是来给卫斯理打call的</t>
+  </si>
+  <si>
+    <t>我是来给卫斯理打call的~</t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -2363,6 +2368,676 @@
       <c r="C24" s="3">
         <f>SUM(C20:C23)</f>
         <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>841</v>
+      </c>
+      <c r="C1" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>358</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>398</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>483</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>456</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>490</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>672</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>583</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>37895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>643</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>48225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>913</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>77605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1308</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>124260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1284</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>128400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>938</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>93800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2146</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>64.587381231984622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>11513</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3745</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>4144</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1456</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>2152</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>11497</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>1105</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>423</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>421</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>526</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>13150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>522</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>18270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>546</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>24570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>713</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>39215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>607</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>39455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>730</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>54750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>924</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>78540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1323</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>125685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1268</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>126800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>995</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>99500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>2355</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>62.195882411165002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>12458</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>2713</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>5867</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1488</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2372</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>12440</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>

--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="7" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="15" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,13 @@
     <sheet name="20191121" sheetId="13" r:id="rId14"/>
     <sheet name="20191125" sheetId="15" r:id="rId15"/>
     <sheet name="20191126" sheetId="16" r:id="rId16"/>
+    <sheet name="20191201" sheetId="17" r:id="rId17"/>
+    <sheet name="20191202" sheetId="18" r:id="rId18"/>
+    <sheet name="20191203" sheetId="19" r:id="rId19"/>
+    <sheet name="20191204" sheetId="20" r:id="rId20"/>
+    <sheet name="20191205" sheetId="21" r:id="rId21"/>
+    <sheet name="20191210" sheetId="22" r:id="rId22"/>
+    <sheet name="20191212" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="26">
   <si>
     <t>空仓</t>
   </si>
@@ -2716,7 +2723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:C23"/>
     </sheetView>
   </sheetViews>
@@ -3034,6 +3041,1011 @@
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>12440</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>950</v>
+      </c>
+      <c r="C1" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>384</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>450</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>480</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>542</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>18970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>521</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>23445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>723</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>39765</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>662</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>696</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>52200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>944</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>80240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1384</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>131480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1362</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>136200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>910</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>91000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2374</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>63.649080735411673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>12382</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>5195</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3300</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1441</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2449</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>12385</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>824</v>
+      </c>
+      <c r="C1" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>352</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>381</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>434</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>10850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>439</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>463</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>685</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>37675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>586</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>38090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>663</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>49725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>838</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>71230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1294</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>122930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1170</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>841</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>84100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2295</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>64.133221850613154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>11265</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>3373</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4088</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1500</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2287</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>11248</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>814</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>310</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>401</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>394</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>462</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>16170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>472</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>21240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>724</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>39820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>602</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>39130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>716</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>53700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>911</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>77435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1342</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>127490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1339</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>133900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>888</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>88800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>2347</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>65.61066666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>11722</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>4759</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>3193</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1397</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2363</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>11712</v>
       </c>
       <c r="C24" s="3">
         <f>SUM(C20:C23)</f>
@@ -3330,6 +4342,1348 @@
         <v>0.92</v>
       </c>
       <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>753</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>319</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>352</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>382</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>444</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>454</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>710</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>39050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>628</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>40820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>687</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>51525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>912</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>77520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1396</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>132620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1316</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>131600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>890</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2616</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>66.4859893973818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>11859</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>4687</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>3001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1516</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2643</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>11847</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>662</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>278</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>341</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>395</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>461</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>16135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>455</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>684</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>37620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>616</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>40040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>685</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>51375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>845</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>71825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1324</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>125780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1306</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>130600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>783</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>78300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2715</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>66.613469156762875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>11550</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3981</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>3330</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1527</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2715</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>11553</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98000000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>610</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>270</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>348</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>388</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>411</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>14385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>482</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>21690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>734</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>40370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>648</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>42120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>730</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>54750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>954</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>81090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1498</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>142310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1589</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>158900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>744</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2675</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>68.709866042951305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>12081</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>4638</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>3102</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1613</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2717</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>12070</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>636</v>
+      </c>
+      <c r="C1" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>267</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>290</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>355</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>382</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>13370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>476</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>21420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>637</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>35035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>625</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>40625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>745</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>55875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>950</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>80750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1395</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>132525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1358</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>135800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>780</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2566</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="F14" s="2">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>68.3408273381295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>11462</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3385</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4144</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1336</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2561</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>11426</v>
+      </c>
+      <c r="C24" s="3">
+        <f>SUM(C20:C23)</f>
+        <v>0.97999999999999987</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/卫斯理仓位统计.xlsx
+++ b/卫斯理仓位统计.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Projects\Quant\DM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9744" firstSheet="15" activeTab="22"/>
+    <workbookView windowWidth="18455" windowHeight="10535" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="20191010" sheetId="1" r:id="rId1"/>
@@ -35,23 +30,24 @@
     <sheet name="20191205" sheetId="21" r:id="rId21"/>
     <sheet name="20191210" sheetId="22" r:id="rId22"/>
     <sheet name="20191212" sheetId="23" r:id="rId23"/>
+    <sheet name="20200804" sheetId="24" r:id="rId24"/>
+    <sheet name="20200805" sheetId="25" r:id="rId25"/>
+    <sheet name="20200806" sheetId="26" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="26">
   <si>
     <t>空仓</t>
   </si>
   <si>
     <t>0-9</t>
+  </si>
+  <si>
+    <t>10-19</t>
   </si>
   <si>
     <t>20-29</t>
@@ -87,16 +83,10 @@
     <t>我是来给卫斯理打Call的</t>
   </si>
   <si>
-    <t>10-19</t>
-  </si>
-  <si>
     <t>60-69 (已选)</t>
   </si>
   <si>
     <t>90-99</t>
-  </si>
-  <si>
-    <t>空仓 (已选)</t>
   </si>
   <si>
     <t>看多</t>
@@ -106,6 +96,9 @@
   </si>
   <si>
     <t>看平</t>
+  </si>
+  <si>
+    <t>空仓 (已选)</t>
   </si>
   <si>
     <t>看空</t>
@@ -129,36 +122,362 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -166,37 +485,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -245,7 +853,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -280,7 +888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -454,29 +1062,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +1095,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -508,9 +1111,9 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>429</v>
@@ -524,9 +1127,9 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>478</v>
@@ -540,9 +1143,9 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>538</v>
@@ -556,9 +1159,9 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>631</v>
@@ -572,9 +1175,9 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>924</v>
@@ -588,9 +1191,9 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>797</v>
@@ -604,9 +1207,9 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>879</v>
@@ -620,9 +1223,9 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1123</v>
@@ -636,9 +1239,9 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1746</v>
@@ -652,9 +1255,9 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1745</v>
@@ -668,9 +1271,9 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>884</v>
@@ -684,51 +1287,52 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2234</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <f>SUM(D1:D13)/SUM(B1:B13)</f>
-        <v>67.477805397727266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67.4778053977273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15">
         <f>SUM(B1:B14)</f>
         <v>13498</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>284</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.05</v>
       </c>
       <c r="D1">
@@ -739,14 +1343,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>133</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -757,14 +1361,14 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>167</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -775,14 +1379,14 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>184</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -793,14 +1397,14 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>227</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.04</v>
       </c>
       <c r="D5">
@@ -811,14 +1415,14 @@
         <v>7945</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>210</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -829,14 +1433,14 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>297</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -847,14 +1451,14 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>281</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -865,14 +1469,14 @@
         <v>18265</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>280</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.05</v>
       </c>
       <c r="D9">
@@ -883,15 +1487,15 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>388</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -901,14 +1505,14 @@
         <v>32980</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>528</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.1</v>
       </c>
       <c r="D11">
@@ -919,14 +1523,14 @@
         <v>50160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>545</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.1</v>
       </c>
       <c r="D12">
@@ -937,14 +1541,14 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>324</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.06</v>
       </c>
       <c r="D13">
@@ -955,22 +1559,22 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1349</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.25</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>65.178014553014549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.1780145530145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -982,89 +1586,90 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>1255</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>1960</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>620</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>1360</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>5195</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>979</v>
       </c>
-      <c r="C1" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C1" s="2">
+        <v>0.07</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -1074,14 +1679,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>392</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -1092,14 +1697,14 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>454</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -1110,14 +1715,14 @@
         <v>6810</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>500</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -1128,14 +1733,14 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>497</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -1146,14 +1751,14 @@
         <v>17395</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>578</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -1164,14 +1769,14 @@
         <v>26010</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>773</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -1182,14 +1787,14 @@
         <v>42515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>655</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.04</v>
       </c>
       <c r="D8">
@@ -1200,14 +1805,14 @@
         <v>42575</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>810</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -1218,15 +1823,15 @@
         <v>60750</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1004</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -1236,14 +1841,14 @@
         <v>85340</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1563</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.11</v>
       </c>
       <c r="D11">
@@ -1254,14 +1859,14 @@
         <v>148485</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1619</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.12</v>
       </c>
       <c r="D12">
@@ -1272,14 +1877,14 @@
         <v>161900</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1113</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.08</v>
       </c>
       <c r="D13">
@@ -1290,22 +1895,22 @@
         <v>111300</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2171</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.16</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>65.606656304288194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.6066563042882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -1317,89 +1922,90 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3809</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>5541</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1531</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2173</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>13054</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>922</v>
       </c>
-      <c r="C1" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C1" s="2">
+        <v>0.07</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -1409,14 +2015,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>381</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.03</v>
       </c>
       <c r="D2">
@@ -1427,14 +2033,14 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>441</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -1445,14 +2051,14 @@
         <v>6615</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>480</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -1463,14 +2069,14 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>491</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -1481,14 +2087,14 @@
         <v>17185</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>560</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -1499,14 +2105,14 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>806</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -1517,14 +2123,14 @@
         <v>44330</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>646</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -1535,14 +2141,14 @@
         <v>41990</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>754</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -1553,15 +2159,15 @@
         <v>56550</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>962</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -1571,14 +2177,14 @@
         <v>81770</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1396</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.11</v>
       </c>
       <c r="D11">
@@ -1589,14 +2195,14 @@
         <v>132620</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1323</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.1</v>
       </c>
       <c r="D12">
@@ -1607,15 +2213,15 @@
         <v>132300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>879</v>
       </c>
-      <c r="C13" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C13" s="2">
+        <v>0.07</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -1625,22 +2231,22 @@
         <v>87900</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2242</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.18</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>63.775022408126681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.7750224081267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -1648,93 +2254,93 @@
       </c>
       <c r="C15">
         <f>SUM(C1:C14)</f>
-        <v>0.92999999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3438</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>4960</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1544</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2335</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>12277</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>738</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.06</v>
       </c>
       <c r="D1">
@@ -1745,14 +2351,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>332</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -1763,14 +2369,14 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>389</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -1781,14 +2387,14 @@
         <v>5835</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>495</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.04</v>
       </c>
       <c r="D4">
@@ -1799,14 +2405,14 @@
         <v>12375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>469</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -1817,14 +2423,14 @@
         <v>16415</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>550</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -1835,14 +2441,14 @@
         <v>24750</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>778</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -1853,14 +2459,14 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>686</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -1871,14 +2477,14 @@
         <v>44590</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>787</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -1889,14 +2495,14 @@
         <v>59025</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1013</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.08</v>
       </c>
       <c r="D10">
@@ -1907,14 +2513,14 @@
         <v>86105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1446</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.11</v>
       </c>
       <c r="D11">
@@ -1925,14 +2531,14 @@
         <v>137370</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1484</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.12</v>
       </c>
       <c r="D12">
@@ -1943,14 +2549,14 @@
         <v>148400</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>851</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.06</v>
       </c>
       <c r="D13">
@@ -1961,22 +2567,22 @@
         <v>85100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14">
         <v>2239</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.18</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>66.322120183669398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.3221201836694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -1988,88 +2594,89 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>4993</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>3023</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1960</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>2246</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>12222</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>808</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.06</v>
       </c>
       <c r="D1">
@@ -2080,14 +2687,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>324</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -2098,14 +2705,14 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>382</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -2116,14 +2723,14 @@
         <v>5730</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>442</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -2134,14 +2741,14 @@
         <v>11050</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>505</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.04</v>
       </c>
       <c r="D5">
@@ -2152,14 +2759,14 @@
         <v>17675</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>558</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -2170,14 +2777,14 @@
         <v>25110</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>735</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -2188,14 +2795,14 @@
         <v>40425</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>635</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -2206,14 +2813,14 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>739</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -2224,15 +2831,15 @@
         <v>55425</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>972</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -2242,14 +2849,14 @@
         <v>82620</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1484</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.12</v>
       </c>
       <c r="D11">
@@ -2260,14 +2867,14 @@
         <v>140980</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1394</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.11</v>
       </c>
       <c r="D12">
@@ -2278,15 +2885,15 @@
         <v>139400</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>867</v>
       </c>
-      <c r="C13" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C13" s="2">
+        <v>0.07</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -2296,22 +2903,22 @@
         <v>86700</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14">
         <v>2307</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.18</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>65.821229050279328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.8212290502793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -2323,89 +2930,90 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3438</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>4960</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1544</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2335</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>12277</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>841</v>
       </c>
-      <c r="C1" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C1" s="2">
+        <v>0.07</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -2415,14 +3023,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>358</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.03</v>
       </c>
       <c r="D2">
@@ -2433,14 +3041,14 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>398</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -2451,14 +3059,14 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>483</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.04</v>
       </c>
       <c r="D4">
@@ -2469,14 +3077,14 @@
         <v>12075</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>456</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -2487,14 +3095,14 @@
         <v>15960</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>490</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -2505,14 +3113,14 @@
         <v>22050</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>672</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -2523,14 +3131,14 @@
         <v>36960</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>583</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -2541,14 +3149,14 @@
         <v>37895</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>643</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.05</v>
       </c>
       <c r="D9">
@@ -2559,15 +3167,15 @@
         <v>48225</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>913</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -2577,14 +3185,14 @@
         <v>77605</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1308</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.11</v>
       </c>
       <c r="D11">
@@ -2595,14 +3203,14 @@
         <v>124260</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1284</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.11</v>
       </c>
       <c r="D12">
@@ -2613,14 +3221,14 @@
         <v>128400</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>938</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.08</v>
       </c>
       <c r="D13">
@@ -2631,22 +3239,22 @@
         <v>93800</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2146</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.18</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>64.587381231984622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.5873812319846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -2658,88 +3266,89 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3745</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>4144</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1456</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
         <v>2152</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>11497</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>1105</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.08</v>
       </c>
       <c r="D1">
@@ -2750,14 +3359,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>423</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.03</v>
       </c>
       <c r="D2">
@@ -2768,14 +3377,14 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>421</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -2786,14 +3395,14 @@
         <v>6315</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>526</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.04</v>
       </c>
       <c r="D4">
@@ -2804,14 +3413,14 @@
         <v>13150</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>522</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.04</v>
       </c>
       <c r="D5">
@@ -2822,14 +3431,14 @@
         <v>18270</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>546</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -2840,14 +3449,14 @@
         <v>24570</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>713</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -2858,14 +3467,14 @@
         <v>39215</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>607</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.04</v>
       </c>
       <c r="D8">
@@ -2876,14 +3485,14 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>730</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.05</v>
       </c>
       <c r="D9">
@@ -2894,15 +3503,15 @@
         <v>54750</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>924</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -2912,14 +3521,14 @@
         <v>78540</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1323</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.1</v>
       </c>
       <c r="D11">
@@ -2930,14 +3539,14 @@
         <v>125685</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1268</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.1</v>
       </c>
       <c r="D12">
@@ -2948,15 +3557,15 @@
         <v>126800</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>995</v>
       </c>
-      <c r="C13" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C13" s="2">
+        <v>0.07</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -2966,22 +3575,22 @@
         <v>99500</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14">
         <v>2355</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.18</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>62.195882411165002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62.195882411165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -2989,93 +3598,94 @@
       </c>
       <c r="C15">
         <f>SUM(C1:C14)</f>
-        <v>0.91999999999999993</v>
+        <v>0.92</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>2713</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>5867</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1488</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>2372</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>12440</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>950</v>
       </c>
-      <c r="C1" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C1" s="2">
+        <v>0.07</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -3085,14 +3695,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>384</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.03</v>
       </c>
       <c r="D2">
@@ -3103,14 +3713,14 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>450</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -3121,14 +3731,14 @@
         <v>6750</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>480</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -3139,14 +3749,14 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>542</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.04</v>
       </c>
       <c r="D5">
@@ -3157,14 +3767,14 @@
         <v>18970</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>521</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -3175,14 +3785,14 @@
         <v>23445</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>723</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -3193,14 +3803,14 @@
         <v>39765</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>662</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -3211,14 +3821,14 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>696</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.05</v>
       </c>
       <c r="D9">
@@ -3229,15 +3839,15 @@
         <v>52200</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>944</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -3247,14 +3857,14 @@
         <v>80240</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1384</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.11</v>
       </c>
       <c r="D11">
@@ -3265,14 +3875,14 @@
         <v>131480</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1362</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.1</v>
       </c>
       <c r="D12">
@@ -3283,15 +3893,15 @@
         <v>136200</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>910</v>
       </c>
-      <c r="C13" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C13" s="2">
+        <v>0.07</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -3301,22 +3911,22 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2374</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.19</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>63.649080735411673</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63.6490807354117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -3324,93 +3934,94 @@
       </c>
       <c r="C15">
         <f>SUM(C1:C14)</f>
-        <v>0.92999999999999994</v>
+        <v>0.93</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>5195</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>3300</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1441</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>2449</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>12385</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.97</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>824</v>
       </c>
-      <c r="C1" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C1" s="2">
+        <v>0.07</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -3420,14 +4031,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>352</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.03</v>
       </c>
       <c r="D2">
@@ -3438,14 +4049,14 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>381</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -3456,14 +4067,14 @@
         <v>5715</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>434</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -3474,14 +4085,14 @@
         <v>10850</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>439</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -3492,14 +4103,14 @@
         <v>15365</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>463</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -3510,14 +4121,14 @@
         <v>20835</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>685</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -3528,14 +4139,14 @@
         <v>37675</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>586</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -3546,14 +4157,14 @@
         <v>38090</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>663</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.05</v>
       </c>
       <c r="D9">
@@ -3564,15 +4175,15 @@
         <v>49725</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>838</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -3582,14 +4193,14 @@
         <v>71230</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1294</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.11</v>
       </c>
       <c r="D11">
@@ -3600,14 +4211,14 @@
         <v>122930</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1170</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.1</v>
       </c>
       <c r="D12">
@@ -3618,15 +4229,15 @@
         <v>117000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>841</v>
       </c>
-      <c r="C13" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C13" s="2">
+        <v>0.07</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -3636,22 +4247,22 @@
         <v>84100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2295</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>64.133221850613154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.1332218506132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -3663,88 +4274,89 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
         <v>3373</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>4088</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1500</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>2287</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>11248</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>814</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.06</v>
       </c>
       <c r="D1">
@@ -3755,14 +4367,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>310</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -3773,14 +4385,14 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>401</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -3791,14 +4403,14 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>394</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -3809,14 +4421,14 @@
         <v>9850</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>462</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -3827,14 +4439,14 @@
         <v>16170</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>472</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -3845,14 +4457,14 @@
         <v>21240</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>724</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -3863,14 +4475,14 @@
         <v>39820</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>602</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -3881,14 +4493,14 @@
         <v>39130</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>716</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -3899,15 +4511,15 @@
         <v>53700</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>911</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -3917,14 +4529,14 @@
         <v>77435</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1342</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.11</v>
       </c>
       <c r="D11">
@@ -3935,14 +4547,14 @@
         <v>127490</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1339</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.11</v>
       </c>
       <c r="D12">
@@ -3953,15 +4565,15 @@
         <v>133900</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>888</v>
       </c>
-      <c r="C13" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C13" s="2">
+        <v>0.07</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -3971,22 +4583,22 @@
         <v>88800</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14">
         <v>2347</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>65.61066666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.6106666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -3998,85 +4610,86 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>4759</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>3193</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.27</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1397</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2363</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>11712</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>699</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.05</v>
       </c>
       <c r="D1">
@@ -4088,14 +4701,14 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>312</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -4107,14 +4720,14 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>428</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -4126,14 +4739,14 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>495</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -4145,14 +4758,14 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>464</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -4164,14 +4777,14 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>584</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -4183,14 +4796,14 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>848</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -4202,14 +4815,14 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>760</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -4221,14 +4834,14 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>897</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -4240,14 +4853,14 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1163</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.08</v>
       </c>
       <c r="D10">
@@ -4259,14 +4872,14 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1670</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.12</v>
       </c>
       <c r="D11">
@@ -4278,14 +4891,14 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1770</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.13</v>
       </c>
       <c r="D12">
@@ -4297,14 +4910,14 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>786</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.06</v>
       </c>
       <c r="D13">
@@ -4316,22 +4929,22 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2224</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.16</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>67.974898859874955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67.974898859875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -4344,34 +4957,34 @@
       <c r="E15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>753</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.06</v>
       </c>
       <c r="D1">
@@ -4382,14 +4995,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>319</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -4400,14 +5013,14 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>352</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.02</v>
       </c>
       <c r="D3">
@@ -4418,14 +5031,14 @@
         <v>5280</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>382</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -4436,14 +5049,14 @@
         <v>9550</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>444</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -4454,14 +5067,14 @@
         <v>15540</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>454</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.03</v>
       </c>
       <c r="D6">
@@ -4472,14 +5085,14 @@
         <v>20430</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>710</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -4490,14 +5103,14 @@
         <v>39050</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>628</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -4508,14 +5121,14 @@
         <v>40820</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>687</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.05</v>
       </c>
       <c r="D9">
@@ -4526,15 +5139,15 @@
         <v>51525</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>912</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -4544,14 +5157,14 @@
         <v>77520</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1396</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.11</v>
       </c>
       <c r="D11">
@@ -4562,14 +5175,14 @@
         <v>132620</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1316</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.11</v>
       </c>
       <c r="D12">
@@ -4580,15 +5193,15 @@
         <v>131600</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>890</v>
       </c>
-      <c r="C13" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C13" s="2">
+        <v>0.07</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -4598,22 +5211,22 @@
         <v>89000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2616</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.22</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
         <v>66.4859893973818</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -4621,93 +5234,93 @@
       </c>
       <c r="C15">
         <f>SUM(C1:C14)</f>
-        <v>0.91999999999999993</v>
+        <v>0.92</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>4687</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>3001</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1516</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>2643</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>11847</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>662</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.05</v>
       </c>
       <c r="D1">
@@ -4718,14 +5331,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>278</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -4736,14 +5349,14 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>341</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.02</v>
       </c>
       <c r="D3">
@@ -4754,14 +5367,14 @@
         <v>5115</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>395</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -4772,14 +5385,14 @@
         <v>9875</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>461</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -4790,14 +5403,14 @@
         <v>16135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>455</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.03</v>
       </c>
       <c r="D6">
@@ -4808,14 +5421,14 @@
         <v>20475</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>684</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -4826,14 +5439,14 @@
         <v>37620</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>616</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -4844,14 +5457,14 @@
         <v>40040</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>685</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.05</v>
       </c>
       <c r="D9">
@@ -4862,15 +5475,15 @@
         <v>51375</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>845</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -4880,14 +5493,14 @@
         <v>71825</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1324</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.11</v>
       </c>
       <c r="D11">
@@ -4898,14 +5511,14 @@
         <v>125780</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1306</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.11</v>
       </c>
       <c r="D12">
@@ -4916,14 +5529,14 @@
         <v>130600</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>783</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.06</v>
       </c>
       <c r="D13">
@@ -4934,22 +5547,22 @@
         <v>78300</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2715</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.23</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>66.613469156762875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.6134691567629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -4957,92 +5570,93 @@
       </c>
       <c r="C15">
         <f>SUM(C1:C14)</f>
-        <v>0.90999999999999992</v>
+        <v>0.91</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3981</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>3330</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1527</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>2715</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>11553</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
-        <v>0.98000000000000009</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>610</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.05</v>
       </c>
       <c r="D1">
@@ -5053,14 +5667,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>270</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -5071,14 +5685,14 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>348</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.02</v>
       </c>
       <c r="D3">
@@ -5089,14 +5703,14 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>388</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -5107,14 +5721,14 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>411</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -5125,14 +5739,14 @@
         <v>14385</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>482</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.03</v>
       </c>
       <c r="D6">
@@ -5143,14 +5757,14 @@
         <v>21690</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>734</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -5161,14 +5775,14 @@
         <v>40370</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>648</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -5179,14 +5793,14 @@
         <v>42120</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>730</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -5197,15 +5811,15 @@
         <v>54750</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>954</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -5215,14 +5829,14 @@
         <v>81090</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1498</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.12</v>
       </c>
       <c r="D11">
@@ -5233,14 +5847,14 @@
         <v>142310</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1589</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.13</v>
       </c>
       <c r="D12">
@@ -5251,14 +5865,14 @@
         <v>158900</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>744</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.06</v>
       </c>
       <c r="D13">
@@ -5269,22 +5883,22 @@
         <v>74400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2675</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.22</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>68.709866042951305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68.7098660429513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -5296,88 +5910,89 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>4638</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>3102</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1613</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>2717</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>12070</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>636</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.05</v>
       </c>
       <c r="D1">
@@ -5388,14 +6003,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>267</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -5406,14 +6021,14 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>290</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.02</v>
       </c>
       <c r="D3">
@@ -5424,14 +6039,14 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>355</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -5442,14 +6057,14 @@
         <v>8875</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>382</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -5460,14 +6075,14 @@
         <v>13370</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>476</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -5478,14 +6093,14 @@
         <v>21420</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>637</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -5496,14 +6111,14 @@
         <v>35035</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>625</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -5514,14 +6129,14 @@
         <v>40625</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>745</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -5532,14 +6147,14 @@
         <v>55875</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>950</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.08</v>
       </c>
       <c r="D10">
@@ -5550,14 +6165,14 @@
         <v>80750</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1395</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.12</v>
       </c>
       <c r="D11">
@@ -5568,14 +6183,14 @@
         <v>132525</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1358</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.11</v>
       </c>
       <c r="D12">
@@ -5586,14 +6201,14 @@
         <v>135800</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>780</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.06</v>
       </c>
       <c r="D13">
@@ -5604,22 +6219,22 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2566</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.22</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
         <v>68.3408273381295</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -5631,88 +6246,1127 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3385</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>4144</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1336</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>2561</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>11426</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
-        <v>0.97999999999999987</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>422</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>152</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>192</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>237</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>314</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>10990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>376</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>16920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>594</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>32670</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>583</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>37895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>720</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>923</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>78455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1414</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>134330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1408</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>140800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>638</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>4514</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="F14" s="3">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>72.6733977172959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>12487</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>3385</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4144</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1336</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2561</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <f>SUM(B20:B23)</f>
+        <v>11426</v>
+      </c>
+      <c r="C24" s="2">
+        <f>SUM(C20:C23)</f>
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>542</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>184</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4">
+        <v>44123</v>
+      </c>
+      <c r="B3">
+        <v>208</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3120</v>
+      </c>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>283</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>7075</v>
+      </c>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>370</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>12950</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>433</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>19485</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>640</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>35200</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>664</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>43160</v>
+      </c>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>839</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>62925</v>
+      </c>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>983</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>83555</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1562</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>148390</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1598</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>159800</v>
+      </c>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>685</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>68500</v>
+      </c>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>4395</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="F14" s="3">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>71.747302858414</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>13386</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.93</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="12:12">
+      <c r="L16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="11" max="11" width="9.66666666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>548</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:E13" si="0">D1*B1</f>
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1">
+        <v>548</v>
+      </c>
+      <c r="M1" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>196</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>196</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>255</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3825</v>
+      </c>
+      <c r="K3" s="4">
+        <v>44123</v>
+      </c>
+      <c r="L3">
+        <v>255</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>326</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8150</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>326</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>387</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>13545</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>387</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>457</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20565</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>457</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>670</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>36850</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>670</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>675</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>43875</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>675</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>895</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>67125</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>895</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1110</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.07</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>94350</v>
+      </c>
+      <c r="K10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>1110</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>1794</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>170430</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>1794</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1922</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>192200</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>1922</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>755</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>75500</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>755</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>5231</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D14"/>
+      <c r="F14" s="3">
+        <f>SUM(E1:E13)/SUM(B1:B13)</f>
+        <v>72.8123123123123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14">
+        <v>5231</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <f>SUM(B1:B14)</f>
+        <v>15221</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C1:C14)</f>
+        <v>0.93</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.55555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>676</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.05</v>
       </c>
       <c r="D1">
@@ -5723,14 +7377,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>302</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -5741,14 +7395,14 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>372</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -5759,14 +7413,14 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>457</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -5777,14 +7431,14 @@
         <v>11425</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>418</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -5795,14 +7449,14 @@
         <v>14630</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>525</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -5813,14 +7467,14 @@
         <v>23625</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>666</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -5831,14 +7485,14 @@
         <v>36630</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>690</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -5849,14 +7503,14 @@
         <v>44850</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>732</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -5867,14 +7521,14 @@
         <v>54900</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>972</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.08</v>
       </c>
       <c r="D10">
@@ -5885,14 +7539,14 @@
         <v>82620</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1493</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.12</v>
       </c>
       <c r="D11">
@@ -5903,14 +7557,14 @@
         <v>141835</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1443</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.12</v>
       </c>
       <c r="D12">
@@ -5921,14 +7575,14 @@
         <v>144300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>727</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.06</v>
       </c>
       <c r="D13">
@@ -5939,22 +7593,22 @@
         <v>72700</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2224</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.16</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>66.990921566557589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.9909215665576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -5967,33 +7621,34 @@
       <c r="E15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>762</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.06</v>
       </c>
       <c r="D1">
@@ -6004,14 +7659,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>356</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -6022,14 +7677,14 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>398</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -6040,14 +7695,14 @@
         <v>5970</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>477</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -6058,14 +7713,14 @@
         <v>11925</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>502</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.04</v>
       </c>
       <c r="D5">
@@ -6076,14 +7731,14 @@
         <v>17570</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>560</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -6094,14 +7749,14 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>722</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -6112,14 +7767,14 @@
         <v>39710</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8">
         <v>684</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -6130,14 +7785,14 @@
         <v>44460</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>813</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -6148,14 +7803,14 @@
         <v>60975</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1013</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.08</v>
       </c>
       <c r="D10">
@@ -6166,14 +7821,14 @@
         <v>86105</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1531</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.12</v>
       </c>
       <c r="D11">
@@ -6184,14 +7839,14 @@
         <v>145445</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1498</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.12</v>
       </c>
       <c r="D12">
@@ -6202,14 +7857,14 @@
         <v>149800</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>861</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.06</v>
       </c>
       <c r="D13">
@@ -6220,22 +7875,22 @@
         <v>86100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2206</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.17</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>66.329959713078509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.3299597130785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -6247,89 +7902,90 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>4544</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>3367</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1541</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2063</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>11515</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>837</v>
       </c>
-      <c r="C1" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C1" s="2">
+        <v>0.07</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -6339,14 +7995,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>349</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.03</v>
       </c>
       <c r="D2">
@@ -6357,14 +8013,14 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>401</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -6375,14 +8031,14 @@
         <v>6015</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>460</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -6393,14 +8049,14 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>475</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.04</v>
       </c>
       <c r="D5">
@@ -6411,14 +8067,14 @@
         <v>16625</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>487</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -6429,14 +8085,14 @@
         <v>21915</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>671</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.05</v>
       </c>
       <c r="D7">
@@ -6447,14 +8103,14 @@
         <v>36905</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>584</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -6465,14 +8121,14 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>703</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -6483,15 +8139,15 @@
         <v>52725</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>850</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -6501,14 +8157,14 @@
         <v>72250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1397</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.12</v>
       </c>
       <c r="D11">
@@ -6519,14 +8175,14 @@
         <v>132715</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1363</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.11</v>
       </c>
       <c r="D12">
@@ -6537,15 +8193,15 @@
         <v>136300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>880</v>
       </c>
-      <c r="C13" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C13" s="2">
+        <v>0.07</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -6555,22 +8211,22 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2056</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.17</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>64.994712911071161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.9947129110712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -6578,39 +8234,40 @@
       </c>
       <c r="C15">
         <f>SUM(C1:C14)</f>
-        <v>0.94000000000000006</v>
+        <v>0.94</v>
       </c>
       <c r="E15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>986</v>
       </c>
-      <c r="C1" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C1" s="2">
+        <v>0.07</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -6620,14 +8277,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>422</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.03</v>
       </c>
       <c r="D2">
@@ -6638,14 +8295,14 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>455</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -6656,14 +8313,14 @@
         <v>6825</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>533</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.04</v>
       </c>
       <c r="D4">
@@ -6674,14 +8331,14 @@
         <v>13325</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>528</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -6692,14 +8349,14 @@
         <v>18480</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>600</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -6710,14 +8367,14 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>800</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -6728,14 +8385,14 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>672</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -6746,14 +8403,14 @@
         <v>43680</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>775</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.05</v>
       </c>
       <c r="D9">
@@ -6764,15 +8421,15 @@
         <v>58125</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>973</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -6782,14 +8439,14 @@
         <v>82705</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1617</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.12</v>
       </c>
       <c r="D11">
@@ -6800,14 +8457,14 @@
         <v>153615</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1537</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.11</v>
       </c>
       <c r="D12">
@@ -6818,15 +8475,15 @@
         <v>153700</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1034</v>
       </c>
-      <c r="C13" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C13" s="2">
+        <v>0.07</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -6836,22 +8493,22 @@
         <v>103400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2379</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.17</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>64.66931942919868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64.6693194291987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -6859,92 +8516,93 @@
       </c>
       <c r="C15">
         <f>SUM(C1:C14)</f>
-        <v>0.94000000000000006</v>
+        <v>0.94</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3391</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>5632</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1836</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2439</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>13298</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>888</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.06</v>
       </c>
       <c r="D1">
@@ -6955,14 +8613,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>377</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -6973,14 +8631,14 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>436</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -6991,14 +8649,14 @@
         <v>6540</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>504</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -7009,14 +8667,14 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>530</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.04</v>
       </c>
       <c r="D5">
@@ -7027,14 +8685,14 @@
         <v>18550</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>564</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -7045,14 +8703,14 @@
         <v>25380</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>821</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -7063,14 +8721,14 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>724</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -7081,14 +8739,14 @@
         <v>47060</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>838</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -7099,15 +8757,15 @@
         <v>62850</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1017</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -7117,14 +8775,14 @@
         <v>86445</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1641</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.12</v>
       </c>
       <c r="D11">
@@ -7135,14 +8793,14 @@
         <v>155895</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1680</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.12</v>
       </c>
       <c r="D12">
@@ -7153,14 +8811,14 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>871</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.06</v>
       </c>
       <c r="D13">
@@ -7171,22 +8829,22 @@
         <v>87100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2298</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.17</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>65.876411716095859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.8764117160959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -7198,88 +8856,89 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>8214</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>1589</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1115</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2270</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>13188</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>877</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.06</v>
       </c>
       <c r="D1">
@@ -7290,14 +8949,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>382</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -7308,14 +8967,14 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>453</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -7326,14 +8985,14 @@
         <v>6795</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>512</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -7344,14 +9003,14 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>567</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.04</v>
       </c>
       <c r="D5">
@@ -7362,14 +9021,14 @@
         <v>19845</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>599</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -7380,14 +9039,14 @@
         <v>26955</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>892</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -7398,14 +9057,14 @@
         <v>49060</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>774</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -7416,14 +9075,14 @@
         <v>50310</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>872</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -7434,15 +9093,15 @@
         <v>65400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1125</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C10" s="2">
+        <v>0.07</v>
       </c>
       <c r="D10">
         <v>85</v>
@@ -7452,14 +9111,14 @@
         <v>95625</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1802</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.12</v>
       </c>
       <c r="D11">
@@ -7470,14 +9129,14 @@
         <v>171190</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1759</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.12</v>
       </c>
       <c r="D12">
@@ -7488,14 +9147,14 @@
         <v>175900</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1149</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.08</v>
       </c>
       <c r="D13">
@@ -7506,22 +9165,22 @@
         <v>114900</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2344</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.16</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>67.218396667516785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67.2183966675168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -7529,92 +9188,93 @@
       </c>
       <c r="C15">
         <f>SUM(C1:C14)</f>
-        <v>0.94000000000000006</v>
+        <v>0.94</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3755</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.62</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>6288</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1761</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>2325</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>14129</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>812</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>0.06</v>
       </c>
       <c r="D1">
@@ -7625,14 +9285,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>336</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0.02</v>
       </c>
       <c r="D2">
@@ -7643,14 +9303,14 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>388</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0.03</v>
       </c>
       <c r="D3">
@@ -7661,14 +9321,14 @@
         <v>5820</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>449</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
       <c r="D4">
@@ -7679,14 +9339,14 @@
         <v>11225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>487</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
       <c r="D5">
@@ -7697,14 +9357,14 @@
         <v>17045</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>558</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.04</v>
       </c>
       <c r="D6">
@@ -7715,14 +9375,14 @@
         <v>25110</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>779</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.06</v>
       </c>
       <c r="D7">
@@ -7733,14 +9393,14 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>650</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
       <c r="D8">
@@ -7751,14 +9411,14 @@
         <v>42250</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>753</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.06</v>
       </c>
       <c r="D9">
@@ -7769,14 +9429,14 @@
         <v>56475</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>999</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.08</v>
       </c>
       <c r="D10">
@@ -7787,14 +9447,14 @@
         <v>84915</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11">
         <v>1463</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.11</v>
       </c>
       <c r="D11">
@@ -7805,14 +9465,14 @@
         <v>138985</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1535</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.12</v>
       </c>
       <c r="D12">
@@ -7823,14 +9483,14 @@
         <v>153500</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>832</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.06</v>
       </c>
       <c r="D13">
@@ -7841,22 +9501,22 @@
         <v>83200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2177</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.17</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>SUM(E1:E13)/SUM(B1:B13)</f>
-        <v>66.034259535902805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66.0342595359028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15">
         <f>SUM(B1:B14)</f>
@@ -7868,63 +9528,63 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
         <v>5942</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>2322</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>1728</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>2225</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <f>SUM(B20:B23)</f>
         <v>12217</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>SUM(C20:C23)</f>
         <v>0.99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>